--- a/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
   <si>
     <t>土地坐落</t>
   </si>
@@ -215,6 +215,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>永光</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
   </si>
   <si>
     <t>麗嬰房</t>
+  </si>
+  <si>
+    <t>2011-11-18</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1247,13 +1259,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1272,13 +1284,22 @@
       <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1295,13 +1316,22 @@
       <c r="G2" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1318,13 +1348,22 @@
       <c r="G3" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1340,6 +1379,15 @@
       </c>
       <c r="G4" s="2">
         <v>50000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1719</v>
       </c>
     </row>
   </sheetData>
@@ -1360,19 +1408,19 @@
         <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1380,22 +1428,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>1221524</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
   <si>
     <t>土地坐落</t>
   </si>
@@ -215,6 +215,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -231,6 +234,9 @@
   </si>
   <si>
     <t>麗嬰房</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-18</t>
@@ -1259,13 +1265,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1293,13 +1299,16 @@
       <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1317,21 +1326,24 @@
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1719</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1349,21 +1361,24 @@
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1719</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1381,12 +1396,15 @@
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1719</v>
       </c>
     </row>
@@ -1408,19 +1426,19 @@
         <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1428,22 +1446,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>1221524</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
   <si>
     <t>土地坐落</t>
   </si>
@@ -218,6 +218,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -227,6 +230,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>永光</t>
   </si>
   <si>
@@ -239,7 +248,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-18</t>
+  </si>
+  <si>
+    <t>tmp77961</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1265,13 +1280,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1302,13 +1317,22 @@
       <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1326,24 +1350,33 @@
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1719</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1361,24 +1394,33 @@
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1719</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1396,16 +1438,25 @@
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1719</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1426,19 +1477,19 @@
         <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1446,22 +1497,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>1221524</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
@@ -18,18 +18,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="89">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段04890055地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段04890059地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03210003地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03210013地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03210019地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03210020地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03210023地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03230001地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03230020地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03230023地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03230024地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段16000000地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段16390001地號</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>6分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>2744分之1159</t>
+  </si>
+  <si>
+    <t>張嘉郡</t>
+  </si>
+  <si>
+    <t>林家宏</t>
+  </si>
+  <si>
+    <t>#家宏</t>
+  </si>
+  <si>
+    <t>95年05月05日</t>
+  </si>
+  <si>
+    <t>94年05月06日</t>
+  </si>
+  <si>
+    <t>91年03月22日</t>
+  </si>
+  <si>
+    <t>94年05月06曰</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>4921200</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-18</t>
+  </si>
+  <si>
+    <t>tmp77961</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
   </si>
   <si>
     <t>登記（取得)時間</t>
@@ -41,109 +179,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>雲林縣土庫鎮馬公厝段 0489-0055 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0489-0059 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0321-0003 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0321-0013 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0321-0019 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0321-0020 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0321-0023 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0323-0001 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0323-0020 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0323-0023 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0323-0024 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 1600-0000 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 1639-0001 地號</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>6分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>2744分之 1159</t>
-  </si>
-  <si>
-    <t>張嘉郡</t>
-  </si>
-  <si>
-    <t>林家宏</t>
-  </si>
-  <si>
-    <t>#家宏</t>
-  </si>
-  <si>
-    <t>95年05月 05日</t>
-  </si>
-  <si>
-    <t>94年05月 06日</t>
-  </si>
-  <si>
-    <t>91年03月 22日</t>
-  </si>
-  <si>
-    <t>91年03月 22日，</t>
-  </si>
-  <si>
-    <t>94年05月 06曰</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>4，921，200</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>LEXUS-RX350</t>
-  </si>
-  <si>
-    <t>100 4 04 月08曰</t>
+    <t>LEXUSRX350</t>
+  </si>
+  <si>
+    <t>100404月08曰</t>
   </si>
   <si>
     <t>(購買）</t>
@@ -161,28 +200,28 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司虎 尾郵局</t>
+    <t>中華郵政股份有限公司虎尾郵局</t>
   </si>
   <si>
     <t>臺灣土地銀行虎尾分行</t>
   </si>
   <si>
-    <t>臺灣中小企業銀行虎尾分 行</t>
+    <t>臺灣中小企業銀行虎尾分行</t>
   </si>
   <si>
     <t>臺灣銀行信義分行</t>
   </si>
   <si>
-    <t>台新國際商業銀行嘉義分 行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行竹科分 行</t>
+    <t>台新國際商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行竹科分行</t>
   </si>
   <si>
     <t>合作金庫商業銀行營業部</t>
   </si>
   <si>
-    <t>合作金庫商業銀行虎尾分 行</t>
+    <t>合作金庫商業銀行虎尾分行</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -194,13 +233,7 @@
     <t>林〇融</t>
   </si>
   <si>
-    <t>559,7-16</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>559716</t>
   </si>
   <si>
     <t>quantity</t>
@@ -215,27 +248,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>永光</t>
   </si>
   <si>
@@ -248,15 +260,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-18</t>
-  </si>
-  <si>
-    <t>tmp77961</t>
-  </si>
-  <si>
     <t>債務人</t>
   </si>
   <si>
@@ -275,10 +278,10 @@
     <t>擔保借款</t>
   </si>
   <si>
-    <t>台新銀行苓雅分行 高雄市前鎮區中山二路</t>
-  </si>
-  <si>
-    <t>100年04月 08日</t>
+    <t>台新銀行苓雅分行高雄市前鎮區中山二路</t>
+  </si>
+  <si>
+    <t>100年04月08日</t>
   </si>
   <si>
     <t>購車</t>
@@ -640,13 +643,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,343 +671,637 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2">
         <v>8000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>78.75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
         <v>252000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>43.83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2">
         <v>122724</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>53.16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2">
         <v>148848</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2">
         <v>263500</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2">
         <v>182900</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2">
         <v>12400</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>139</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2">
         <v>430900</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H10" s="2">
         <v>481600</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>182</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2">
         <v>509600</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>0.83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H12" s="2">
         <v>2324</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>1158.98</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2">
         <v>1043082</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>2734</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1022,22 +1319,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1045,19 +1342,19 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2">
         <v>2400000</v>
@@ -1078,19 +1375,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1098,16 +1395,16 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
         <v>2269900</v>
@@ -1118,19 +1415,19 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1138,16 +1435,16 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
         <v>3379</v>
@@ -1158,16 +1455,16 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>75298</v>
@@ -1178,16 +1475,16 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>141360</v>
@@ -1198,16 +1495,16 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>2790175</v>
@@ -1218,16 +1515,16 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
         <v>3302176</v>
@@ -1238,16 +1535,16 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
         <v>965008</v>
@@ -1258,16 +1555,16 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2">
         <v>1908008</v>
@@ -1288,43 +1585,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1332,10 +1629,10 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>5000</v>
@@ -1344,28 +1641,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2">
         <v>1719</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2">
         <v>75</v>
@@ -1376,10 +1673,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>15000</v>
@@ -1388,28 +1685,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2">
         <v>1719</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2">
         <v>76</v>
@@ -1420,10 +1717,10 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>5000</v>
@@ -1432,28 +1729,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G4" s="2">
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2">
         <v>1719</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2">
         <v>77</v>
@@ -1474,22 +1771,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1497,22 +1794,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>1221524</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>雲林縣土庫鎮馬公厝段04890055地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>雲林縣土庫鎮馬公厝段04890059地號</t>
@@ -161,24 +164,6 @@
     <t>tmp77961</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>LEXUSRX350</t>
   </si>
   <si>
@@ -188,21 +173,15 @@
     <t>(購買）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>中華郵政股份有限公司虎尾郵局</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣土地銀行虎尾分行</t>
   </si>
   <si>
@@ -224,12 +203,6 @@
     <t>合作金庫商業銀行虎尾分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>林〇融</t>
   </si>
   <si>
@@ -245,12 +218,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>永光</t>
-  </si>
-  <si>
     <t>勝華</t>
   </si>
   <si>
@@ -258,21 +225,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>擔保借款</t>
@@ -643,13 +595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,257 +644,293 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2.5</v>
+        <v>78.75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2">
-        <v>8000</v>
+        <v>252000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2">
         <v>1719</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>19.6875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43.83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2">
+        <v>122724</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>78.75</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2">
-        <v>252000</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2">
         <v>1719</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>7.305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>53.16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2">
+        <v>148848</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43.83</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="2">
-        <v>122724</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2">
         <v>1719</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2">
+        <v>263500</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>53.16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="2">
-        <v>148848</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2">
         <v>1719</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2">
+        <v>182900</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>85</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="2">
-        <v>263500</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2">
         <v>1719</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>36</v>
@@ -951,136 +939,154 @@
         <v>41</v>
       </c>
       <c r="H7" s="2">
-        <v>182900</v>
+        <v>12400</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2">
         <v>1719</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>139</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2">
+        <v>430900</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="2">
-        <v>12400</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" s="2">
         <v>1719</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>172</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2">
+        <v>481600</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>139</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="2">
-        <v>430900</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2">
         <v>1719</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>33</v>
@@ -1089,219 +1095,196 @@
         <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2">
-        <v>481600</v>
+        <v>509600</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" s="2">
         <v>1719</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>182</v>
+        <v>0.83</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2">
-        <v>509600</v>
+        <v>2324</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11" s="2">
         <v>1719</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="2">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.138333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1158.98</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1043082</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2324</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M12" s="2">
         <v>1719</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.422376093294461</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>489.525444606414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>1158.98</v>
+        <v>2734</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1043082</v>
+        <v>40</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M13" s="2">
         <v>1719</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
         <v>2734</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1719</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="2">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1311,52 +1294,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C1" s="1">
+        <v>3456</v>
+      </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3456</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G1" s="1">
         <v>2400000</v>
       </c>
     </row>
@@ -1367,7 +1327,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1375,198 +1335,178 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2269900</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2269900</v>
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3379</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2">
-        <v>3379</v>
+        <v>75298</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
-        <v>75298</v>
+        <v>141360</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2">
-        <v>141360</v>
+        <v>2790175</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2">
-        <v>2790175</v>
+        <v>3302176</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2">
-        <v>3302176</v>
+        <v>965008</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2">
-        <v>965008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>65</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="2">
         <v>1908008</v>
       </c>
     </row>
@@ -1577,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1591,16 +1531,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1626,133 +1566,89 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2">
         <v>1719</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2">
         <v>1719</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>77</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="2">
-        <v>50000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1719</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="2">
         <v>77</v>
       </c>
     </row>
@@ -1763,53 +1659,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1221524</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>110</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1221524</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>雲林縣土庫鎮馬公厝段04890055地號</t>
+  </si>
+  <si>
     <t>雲林縣土庫鎮馬公厝段04890059地號</t>
   </si>
   <si>
@@ -216,6 +219,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>永光</t>
   </si>
   <si>
     <t>勝華</t>
@@ -595,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,66 +659,66 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>78.75</v>
+        <v>2.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
-        <v>252000</v>
+        <v>8000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2">
         <v>1719</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.25</v>
       </c>
       <c r="Q2" s="2">
-        <v>19.6875</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>43.83</v>
+        <v>78.75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -727,157 +733,157 @@
         <v>40</v>
       </c>
       <c r="H3" s="2">
-        <v>122724</v>
+        <v>252000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="2">
         <v>1719</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.166666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="Q3" s="2">
-        <v>7.305</v>
+        <v>19.6875</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>53.16</v>
+        <v>43.83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2">
-        <v>148848</v>
+        <v>122724</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="2">
         <v>1719</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.166666666666667</v>
       </c>
       <c r="Q4" s="2">
-        <v>8.86</v>
+        <v>7.305</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>85</v>
+        <v>53.16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="2">
-        <v>263500</v>
+        <v>148848</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M5" s="2">
         <v>1719</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q5" s="2">
-        <v>85</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>37</v>
@@ -886,154 +892,154 @@
         <v>42</v>
       </c>
       <c r="H6" s="2">
-        <v>182900</v>
+        <v>263500</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="2">
         <v>1719</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2">
-        <v>12400</v>
+        <v>182900</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7" s="2">
         <v>1719</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2">
-        <v>430900</v>
+        <v>12400</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M8" s="2">
         <v>1719</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -1045,245 +1051,298 @@
         <v>42</v>
       </c>
       <c r="H9" s="2">
-        <v>481600</v>
+        <v>430900</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M9" s="2">
         <v>1719</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>172</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H10" s="2">
-        <v>509600</v>
+        <v>481600</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M10" s="2">
         <v>1719</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>0.83</v>
+        <v>182</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="2">
-        <v>2324</v>
+        <v>509600</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M11" s="2">
         <v>1719</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.138333333333333</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>1158.98</v>
+        <v>0.83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H12" s="2">
-        <v>1043082</v>
+        <v>2324</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12" s="2">
         <v>1719</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
-        <v>0.422376093294461</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q12" s="2">
-        <v>489.525444606414</v>
+        <v>0.138333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>2734</v>
+        <v>1158.98</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1043082</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M13" s="2">
         <v>1719</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.422376093294461</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>489.525444606414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2734</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="2">
+      <c r="L14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="2">
         <v>26</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P14" s="2">
         <v>1</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q14" s="2">
         <v>2734</v>
       </c>
     </row>
@@ -1294,29 +1353,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1">
         <v>3456</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>3456</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1">
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="2">
         <v>2400000</v>
       </c>
     </row>
@@ -1327,7 +1409,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1335,16 +1417,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1">
         <v>2269900</v>
@@ -1352,161 +1434,181 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2269900</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3379</v>
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2">
-        <v>75298</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
-        <v>141360</v>
+        <v>75298</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="2">
-        <v>2790175</v>
+        <v>141360</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2">
-        <v>3302176</v>
+        <v>2790175</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2">
-        <v>965008</v>
+        <v>3302176</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2">
+        <v>965008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>65</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2">
         <v>1908008</v>
       </c>
     </row>
@@ -1517,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1531,13 +1633,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1566,89 +1668,133 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2">
         <v>1719</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2">
         <v>1719</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="2">
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1719</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="2">
         <v>77</v>
       </c>
     </row>
@@ -1659,30 +1805,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1">
         <v>1221524</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1221524</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>tmp77961</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>LEXUSRX350</t>
@@ -1353,38 +1356,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1">
-        <v>3456</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
@@ -1393,13 +1417,34 @@
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2">
         <v>2400000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1719</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1417,13 +1462,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>33</v>
@@ -1437,13 +1482,13 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
@@ -1457,19 +1502,19 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1477,13 +1522,13 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -1497,13 +1542,13 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -1517,13 +1562,13 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>33</v>
@@ -1537,13 +1582,13 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -1557,13 +1602,13 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -1577,13 +1622,13 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -1597,16 +1642,16 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2">
         <v>1908008</v>
@@ -1633,13 +1678,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1671,7 +1716,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -1683,13 +1728,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>46</v>
@@ -1715,7 +1760,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
@@ -1727,13 +1772,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>46</v>
@@ -1759,7 +1804,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
@@ -1771,13 +1816,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2">
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>46</v>
@@ -1813,22 +1858,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1">
         <v>1221524</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1836,22 +1881,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>1221524</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>(購買）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>中華郵政股份有限公司虎尾郵局</t>
@@ -1426,7 +1429,7 @@
         <v>2400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>46</v>
@@ -1462,13 +1465,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>33</v>
@@ -1482,13 +1485,13 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
@@ -1502,19 +1505,19 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1522,13 +1525,13 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -1542,13 +1545,13 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -1562,13 +1565,13 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>33</v>
@@ -1582,13 +1585,13 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -1602,13 +1605,13 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -1622,13 +1625,13 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -1642,16 +1645,16 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="2">
         <v>1908008</v>
@@ -1678,13 +1681,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1716,7 +1719,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -1728,13 +1731,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>46</v>
@@ -1760,7 +1763,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
@@ -1772,13 +1775,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>46</v>
@@ -1804,7 +1807,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
@@ -1816,13 +1819,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2">
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>46</v>
@@ -1858,22 +1861,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1">
         <v>1221524</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1881,22 +1884,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>1221524</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -182,49 +182,55 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司虎尾郵局</t>
   </si>
   <si>
+    <t>臺灣土地銀行虎尾分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行虎尾分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行信義分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行竹科分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行營業部</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行虎尾分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣土地銀行虎尾分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行虎尾分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行信義分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行竹科分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行營業部</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行虎尾分行</t>
-  </si>
-  <si>
     <t>林〇融</t>
   </si>
   <si>
-    <t>559716</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>永光</t>
@@ -1457,13 +1463,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1474,24 +1480,45 @@
         <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2269900</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
@@ -1499,39 +1526,81 @@
       <c r="F2" s="2">
         <v>2269900</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="2">
+        <v>559716</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -1539,19 +1608,40 @@
       <c r="F4" s="2">
         <v>3379</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -1559,19 +1649,40 @@
       <c r="F5" s="2">
         <v>75298</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>33</v>
@@ -1579,19 +1690,40 @@
       <c r="F6" s="2">
         <v>141360</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -1599,19 +1731,40 @@
       <c r="F7" s="2">
         <v>2790175</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -1619,19 +1772,40 @@
       <c r="F8" s="2">
         <v>3302176</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -1639,25 +1813,67 @@
       <c r="F9" s="2">
         <v>965008</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2">
         <v>1908008</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="2">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1681,13 +1897,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1719,7 +1935,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -1731,13 +1947,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>46</v>
@@ -1763,7 +1979,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
@@ -1775,13 +1991,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>46</v>
@@ -1807,7 +2023,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
@@ -1819,13 +2035,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2">
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>46</v>
@@ -1861,22 +2077,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1">
         <v>1221524</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1884,22 +2100,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>1221524</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2011-11-18_財產申報表_tmp77961.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -245,6 +245,12 @@
     <t>stock</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>擔保借款</t>
   </si>
   <si>
@@ -255,6 +261,9 @@
   </si>
   <si>
     <t>購車</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2069,53 +2078,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1221524</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>1221524</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1719</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="2">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
